--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T55_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T55_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-3.965936795080616E-07</v>
+        <v>2.14757047140632</v>
       </c>
       <c r="C2">
-        <v>2.14757047140632</v>
+        <v>-1.292459396593679</v>
       </c>
       <c r="D2">
-        <v>-1.292459396593679</v>
+        <v>-1.35363339659368</v>
       </c>
       <c r="E2">
-        <v>-1.35363339659368</v>
+        <v>0.6878226034063205</v>
       </c>
       <c r="F2">
-        <v>0.6878226034063205</v>
+        <v>0.1052276034063205</v>
       </c>
       <c r="G2">
-        <v>0.1052276034063205</v>
+        <v>0.2009027474063205</v>
       </c>
       <c r="H2">
-        <v>0.2009027474063205</v>
+        <v>-0.05951639659367947</v>
       </c>
       <c r="I2">
-        <v>-0.05951639659367947</v>
+        <v>0.7759386034063205</v>
       </c>
       <c r="J2">
-        <v>0.7759386034063205</v>
+        <v>0.6758656504063205</v>
       </c>
       <c r="K2">
-        <v>0.6758656504063205</v>
+        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-3.930720193778825E-10</v>
+        <v>-3.440029868393072</v>
       </c>
       <c r="C3">
-        <v>-3.440029868393072</v>
+        <v>-3.501203868393072</v>
       </c>
       <c r="D3">
-        <v>-3.501203868393072</v>
+        <v>-1.459747868393072</v>
       </c>
       <c r="E3">
-        <v>-1.459747868393072</v>
+        <v>-2.042342868393072</v>
       </c>
       <c r="F3">
-        <v>-2.042342868393072</v>
+        <v>-1.946667724393072</v>
       </c>
       <c r="G3">
-        <v>-1.946667724393072</v>
+        <v>-2.207086868393072</v>
       </c>
       <c r="H3">
-        <v>-2.207086868393072</v>
+        <v>-1.371631868393072</v>
       </c>
       <c r="I3">
-        <v>-1.371631868393072</v>
+        <v>-1.471704821393072</v>
       </c>
       <c r="J3">
-        <v>-1.471704821393072</v>
+        <v>-1.825497868393072</v>
       </c>
       <c r="K3">
-        <v>-1.825497868393072</v>
+        <v>-1.677319868393072</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.181302580199883E-07</v>
+        <v>-0.06117388186974204</v>
       </c>
       <c r="C4">
-        <v>-0.06117388186974204</v>
+        <v>1.980282118130258</v>
       </c>
       <c r="D4">
-        <v>1.980282118130258</v>
+        <v>1.397687118130258</v>
       </c>
       <c r="E4">
-        <v>1.397687118130258</v>
+        <v>1.493362262130258</v>
       </c>
       <c r="F4">
-        <v>1.493362262130258</v>
+        <v>1.232943118130258</v>
       </c>
       <c r="G4">
-        <v>1.232943118130258</v>
+        <v>2.068398118130258</v>
       </c>
       <c r="H4">
-        <v>2.068398118130258</v>
+        <v>1.968325165130258</v>
       </c>
       <c r="I4">
-        <v>1.968325165130258</v>
+        <v>1.614532118130258</v>
       </c>
       <c r="J4">
-        <v>1.614532118130258</v>
+        <v>1.762710118130258</v>
       </c>
       <c r="K4">
-        <v>1.762710118130258</v>
+        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2.965444589886346E-07</v>
+        <v>2.041456296544459</v>
       </c>
       <c r="C5">
-        <v>2.041456296544459</v>
+        <v>1.458861296544459</v>
       </c>
       <c r="D5">
-        <v>1.458861296544459</v>
+        <v>1.554536440544459</v>
       </c>
       <c r="E5">
-        <v>1.554536440544459</v>
+        <v>1.294117296544459</v>
       </c>
       <c r="F5">
-        <v>1.294117296544459</v>
+        <v>2.129572296544459</v>
       </c>
       <c r="G5">
-        <v>2.129572296544459</v>
+        <v>2.029499343544459</v>
       </c>
       <c r="H5">
-        <v>2.029499343544459</v>
+        <v>1.675706296544459</v>
       </c>
       <c r="I5">
-        <v>1.675706296544459</v>
+        <v>1.823884296544459</v>
       </c>
       <c r="J5">
-        <v>1.823884296544459</v>
+        <v>1.981330296544459</v>
       </c>
       <c r="K5">
-        <v>1.981330296544459</v>
+        <v>1.480667296544459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.593882045849206E-07</v>
+        <v>-0.5825946406117954</v>
       </c>
       <c r="C6">
-        <v>-0.5825946406117954</v>
+        <v>-0.4869194966117955</v>
       </c>
       <c r="D6">
-        <v>-0.4869194966117955</v>
+        <v>-0.7473386406117954</v>
       </c>
       <c r="E6">
-        <v>-0.7473386406117954</v>
+        <v>0.08811635938820461</v>
       </c>
       <c r="F6">
-        <v>0.08811635938820461</v>
+        <v>-0.01195659361179541</v>
       </c>
       <c r="G6">
-        <v>-0.01195659361179541</v>
+        <v>-0.3657496406117954</v>
       </c>
       <c r="H6">
-        <v>-0.3657496406117954</v>
+        <v>-0.2175716406117954</v>
       </c>
       <c r="I6">
-        <v>-0.2175716406117954</v>
+        <v>-0.06012564061179543</v>
       </c>
       <c r="J6">
-        <v>-0.06012564061179543</v>
+        <v>-0.5607886406117955</v>
       </c>
       <c r="K6">
-        <v>-0.5607886406117955</v>
+        <v>-0.2804276406117954</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.035781544145298E-07</v>
+        <v>0.09567504042184558</v>
       </c>
       <c r="C7">
-        <v>0.09567504042184558</v>
+        <v>-0.1647441035781544</v>
       </c>
       <c r="D7">
-        <v>-0.1647441035781544</v>
+        <v>0.6707108964218456</v>
       </c>
       <c r="E7">
-        <v>0.6707108964218456</v>
+        <v>0.5706379434218456</v>
       </c>
       <c r="F7">
-        <v>0.5706379434218456</v>
+        <v>0.2168448964218456</v>
       </c>
       <c r="G7">
-        <v>0.2168448964218456</v>
+        <v>0.3650228964218456</v>
       </c>
       <c r="H7">
-        <v>0.3650228964218456</v>
+        <v>0.5224688964218456</v>
       </c>
       <c r="I7">
-        <v>0.5224688964218456</v>
+        <v>0.02180589642184558</v>
       </c>
       <c r="J7">
-        <v>0.02180589642184558</v>
+        <v>0.3021668964218456</v>
       </c>
       <c r="K7">
-        <v>0.3021668964218456</v>
+        <v>0.1301918964218456</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-3.87512216759589E-10</v>
+        <v>-0.2604191443875122</v>
       </c>
       <c r="C8">
-        <v>-0.2604191443875122</v>
+        <v>0.5750358556124878</v>
       </c>
       <c r="D8">
-        <v>0.5750358556124878</v>
+        <v>0.4749629026124878</v>
       </c>
       <c r="E8">
-        <v>0.4749629026124878</v>
+        <v>0.1211698556124878</v>
       </c>
       <c r="F8">
-        <v>0.1211698556124878</v>
+        <v>0.2693478556124878</v>
       </c>
       <c r="G8">
-        <v>0.2693478556124878</v>
+        <v>0.4267938556124878</v>
       </c>
       <c r="H8">
-        <v>0.4267938556124878</v>
+        <v>-0.07386914438751221</v>
       </c>
       <c r="I8">
-        <v>-0.07386914438751221</v>
+        <v>0.2064918556124878</v>
       </c>
       <c r="J8">
-        <v>0.2064918556124878</v>
+        <v>0.0345168556124878</v>
       </c>
       <c r="K8">
-        <v>0.0345168556124878</v>
+        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.07388789361007E-07</v>
+        <v>0.8354548926112106</v>
       </c>
       <c r="C9">
-        <v>0.8354548926112106</v>
+        <v>0.7353819396112107</v>
       </c>
       <c r="D9">
-        <v>0.7353819396112107</v>
+        <v>0.3815888926112106</v>
       </c>
       <c r="E9">
-        <v>0.3815888926112106</v>
+        <v>0.5297668926112107</v>
       </c>
       <c r="F9">
-        <v>0.5297668926112107</v>
+        <v>0.6872128926112107</v>
       </c>
       <c r="G9">
-        <v>0.6872128926112107</v>
+        <v>0.1865498926112106</v>
       </c>
       <c r="H9">
-        <v>0.1865498926112106</v>
+        <v>0.4669108926112106</v>
       </c>
       <c r="I9">
-        <v>0.4669108926112106</v>
+        <v>0.2949358926112106</v>
       </c>
       <c r="J9">
-        <v>0.2949358926112106</v>
+        <v>0.6007988926112107</v>
       </c>
       <c r="K9">
-        <v>0.6007988926112107</v>
+        <v>-0.01153110738878937</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.035472805832605E-07</v>
+        <v>-0.1000730565472806</v>
       </c>
       <c r="C10">
-        <v>-0.1000730565472806</v>
+        <v>-0.4538661035472806</v>
       </c>
       <c r="D10">
-        <v>-0.4538661035472806</v>
+        <v>-0.3056881035472806</v>
       </c>
       <c r="E10">
-        <v>-0.3056881035472806</v>
+        <v>-0.1482421035472806</v>
       </c>
       <c r="F10">
-        <v>-0.1482421035472806</v>
+        <v>-0.6489051035472806</v>
       </c>
       <c r="G10">
-        <v>-0.6489051035472806</v>
+        <v>-0.3685441035472806</v>
       </c>
       <c r="H10">
-        <v>-0.3685441035472806</v>
+        <v>-0.5405191035472806</v>
       </c>
       <c r="I10">
-        <v>-0.5405191035472806</v>
+        <v>-0.2346561035472806</v>
       </c>
       <c r="J10">
-        <v>-0.2346561035472806</v>
+        <v>-0.8469861035472805</v>
       </c>
       <c r="K10">
-        <v>-0.8469861035472805</v>
+        <v>-0.1586151035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,33 +816,30 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6.303355340908645E-06</v>
+        <v>-0.3537867436446591</v>
       </c>
       <c r="C11">
-        <v>-0.3537867436446591</v>
+        <v>-0.2056087436446591</v>
       </c>
       <c r="D11">
-        <v>-0.2056087436446591</v>
+        <v>-0.04816274364465911</v>
       </c>
       <c r="E11">
-        <v>-0.04816274364465911</v>
+        <v>-0.5488257436446591</v>
       </c>
       <c r="F11">
-        <v>-0.5488257436446591</v>
+        <v>-0.2684647436446591</v>
       </c>
       <c r="G11">
-        <v>-0.2684647436446591</v>
+        <v>-0.4404397436446591</v>
       </c>
       <c r="H11">
-        <v>-0.4404397436446591</v>
+        <v>-0.1345767436446591</v>
       </c>
       <c r="I11">
-        <v>-0.1345767436446591</v>
+        <v>-0.746906743644659</v>
       </c>
       <c r="J11">
-        <v>-0.746906743644659</v>
-      </c>
-      <c r="K11">
         <v>-0.05853574364465908</v>
       </c>
     </row>
@@ -851,30 +848,27 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-2.375649628613696E-07</v>
+        <v>0.1481777624350372</v>
       </c>
       <c r="C12">
-        <v>0.1481777624350372</v>
+        <v>0.3056237624350371</v>
       </c>
       <c r="D12">
-        <v>0.3056237624350371</v>
+        <v>-0.1950392375649629</v>
       </c>
       <c r="E12">
-        <v>-0.1950392375649629</v>
+        <v>0.08532176243503714</v>
       </c>
       <c r="F12">
-        <v>0.08532176243503714</v>
+        <v>-0.08665323756496286</v>
       </c>
       <c r="G12">
-        <v>-0.08665323756496286</v>
+        <v>0.2192097624350371</v>
       </c>
       <c r="H12">
-        <v>0.2192097624350371</v>
+        <v>-0.3931202375649628</v>
       </c>
       <c r="I12">
-        <v>-0.3931202375649628</v>
-      </c>
-      <c r="J12">
         <v>0.2952507624350372</v>
       </c>
     </row>
@@ -883,27 +877,24 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3.720025918141356E-07</v>
+        <v>0.1574463720025918</v>
       </c>
       <c r="C13">
-        <v>0.1574463720025918</v>
+        <v>-0.3432166279974082</v>
       </c>
       <c r="D13">
-        <v>-0.3432166279974082</v>
+        <v>-0.06285562799740819</v>
       </c>
       <c r="E13">
-        <v>-0.06285562799740819</v>
+        <v>-0.2348306279974082</v>
       </c>
       <c r="F13">
-        <v>-0.2348306279974082</v>
+        <v>0.0710323720025918</v>
       </c>
       <c r="G13">
-        <v>0.0710323720025918</v>
+        <v>-0.5412976279974082</v>
       </c>
       <c r="H13">
-        <v>-0.5412976279974082</v>
-      </c>
-      <c r="I13">
         <v>0.1470733720025918</v>
       </c>
     </row>
@@ -912,24 +903,21 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3.829984367986761E-07</v>
+        <v>-0.5006626170015632</v>
       </c>
       <c r="C14">
-        <v>-0.5006626170015632</v>
+        <v>-0.2203016170015632</v>
       </c>
       <c r="D14">
-        <v>-0.2203016170015632</v>
+        <v>-0.3922766170015632</v>
       </c>
       <c r="E14">
-        <v>-0.3922766170015632</v>
+        <v>-0.08641361700156319</v>
       </c>
       <c r="F14">
-        <v>-0.08641361700156319</v>
+        <v>-0.6987436170015632</v>
       </c>
       <c r="G14">
-        <v>-0.6987436170015632</v>
-      </c>
-      <c r="H14">
         <v>-0.01037261700156317</v>
       </c>
     </row>
@@ -938,21 +926,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-3.160475492397508E-06</v>
+        <v>0.2803578395245076</v>
       </c>
       <c r="C15">
-        <v>0.2803578395245076</v>
+        <v>0.1083828395245076</v>
       </c>
       <c r="D15">
-        <v>0.1083828395245076</v>
+        <v>0.4142458395245076</v>
       </c>
       <c r="E15">
-        <v>0.4142458395245076</v>
+        <v>-0.1980841604754924</v>
       </c>
       <c r="F15">
-        <v>-0.1980841604754924</v>
-      </c>
-      <c r="G15">
         <v>0.4902868395245076</v>
       </c>
     </row>
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-4.101096154340844E-08</v>
+        <v>-0.1719750410109616</v>
       </c>
       <c r="C16">
-        <v>-0.1719750410109616</v>
+        <v>0.1338879589890384</v>
       </c>
       <c r="D16">
-        <v>0.1338879589890384</v>
+        <v>-0.4784420410109615</v>
       </c>
       <c r="E16">
-        <v>-0.4784420410109615</v>
-      </c>
-      <c r="F16">
         <v>0.2099289589890385</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1.831659499074156E-07</v>
+        <v>0.3058628168340501</v>
       </c>
       <c r="C17">
-        <v>0.3058628168340501</v>
+        <v>-0.3064671831659499</v>
       </c>
       <c r="D17">
-        <v>-0.3064671831659499</v>
-      </c>
-      <c r="E17">
         <v>0.3819038168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2.770877186031306E-07</v>
+        <v>-0.6123297229122814</v>
       </c>
       <c r="C18">
-        <v>-0.6123297229122814</v>
-      </c>
-      <c r="D18">
         <v>0.07604127708771863</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2.29775004800814E-07</v>
-      </c>
-      <c r="C19">
         <v>0.6883712297750049</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>-1.554241066958895E-07</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T55_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_T55_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-3.965936795080616E-07</v>
+      </c>
+      <c r="C2">
         <v>2.14757047140632</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.292459396593679</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.35363339659368</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.6878226034063205</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1052276034063205</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2009027474063205</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.05951639659367947</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.7759386034063205</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.6758656504063205</v>
-      </c>
-      <c r="K2">
-        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-3.930720193778825E-10</v>
+      </c>
+      <c r="C3">
         <v>-3.440029868393072</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-3.501203868393072</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.459747868393072</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-2.042342868393072</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.946667724393072</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-2.207086868393072</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.371631868393072</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.471704821393072</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.825497868393072</v>
-      </c>
-      <c r="K3">
-        <v>-1.677319868393072</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>1.181302580199883E-07</v>
+      </c>
+      <c r="C4">
         <v>-0.06117388186974204</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.980282118130258</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.397687118130258</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.493362262130258</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.232943118130258</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.068398118130258</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.968325165130258</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.614532118130258</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.762710118130258</v>
-      </c>
-      <c r="K4">
-        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>2.965444589886346E-07</v>
+      </c>
+      <c r="C5">
         <v>2.041456296544459</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.458861296544459</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.554536440544459</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.294117296544459</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.129572296544459</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.029499343544459</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.675706296544459</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.823884296544459</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.981330296544459</v>
-      </c>
-      <c r="K5">
-        <v>1.480667296544459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>3.593882045849206E-07</v>
+      </c>
+      <c r="C6">
         <v>-0.5825946406117954</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4869194966117955</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.7473386406117954</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.08811635938820461</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.01195659361179541</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.3657496406117954</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.2175716406117954</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.06012564061179543</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.5607886406117955</v>
-      </c>
-      <c r="K6">
-        <v>-0.2804276406117954</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.035781544145298E-07</v>
+      </c>
+      <c r="C7">
         <v>0.09567504042184558</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.1647441035781544</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6707108964218456</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.5706379434218456</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2168448964218456</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.3650228964218456</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.5224688964218456</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.02180589642184558</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.3021668964218456</v>
-      </c>
-      <c r="K7">
-        <v>0.1301918964218456</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-3.87512216759589E-10</v>
+      </c>
+      <c r="C8">
         <v>-0.2604191443875122</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5750358556124878</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4749629026124878</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1211698556124878</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2693478556124878</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4267938556124878</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.07386914438751221</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2064918556124878</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.0345168556124878</v>
-      </c>
-      <c r="K8">
-        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-1.07388789361007E-07</v>
+      </c>
+      <c r="C9">
         <v>0.8354548926112106</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.7353819396112107</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3815888926112106</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5297668926112107</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.6872128926112107</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1865498926112106</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.4669108926112106</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2949358926112106</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.6007988926112107</v>
-      </c>
-      <c r="K9">
-        <v>-0.01153110738878937</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-1.035472805832605E-07</v>
+      </c>
+      <c r="C10">
         <v>-0.1000730565472806</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.4538661035472806</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.3056881035472806</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.1482421035472806</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.6489051035472806</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3685441035472806</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.5405191035472806</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2346561035472806</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.8469861035472805</v>
-      </c>
-      <c r="K10">
-        <v>-0.1586151035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,30 +816,33 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>6.303355340908645E-06</v>
+      </c>
+      <c r="C11">
         <v>-0.3537867436446591</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2056087436446591</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.04816274364465911</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.5488257436446591</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.2684647436446591</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.4404397436446591</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.1345767436446591</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.746906743644659</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.05853574364465908</v>
       </c>
     </row>
@@ -848,27 +851,30 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-2.375649628613696E-07</v>
+      </c>
+      <c r="C12">
         <v>0.1481777624350372</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3056237624350371</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.1950392375649629</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.08532176243503714</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.08665323756496286</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2192097624350371</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.3931202375649628</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.2952507624350372</v>
       </c>
     </row>
@@ -877,24 +883,27 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>3.720025918141356E-07</v>
+      </c>
+      <c r="C13">
         <v>0.1574463720025918</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.3432166279974082</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.06285562799740819</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.2348306279974082</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0710323720025918</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.5412976279974082</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.1470733720025918</v>
       </c>
     </row>
@@ -903,21 +912,24 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>3.829984367986761E-07</v>
+      </c>
+      <c r="C14">
         <v>-0.5006626170015632</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2203016170015632</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.3922766170015632</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.08641361700156319</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.6987436170015632</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.01037261700156317</v>
       </c>
     </row>
@@ -926,18 +938,21 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-3.160475492397508E-06</v>
+      </c>
+      <c r="C15">
         <v>0.2803578395245076</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.1083828395245076</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.4142458395245076</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.1980841604754924</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.4902868395245076</v>
       </c>
     </row>
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-4.101096154340844E-08</v>
+      </c>
+      <c r="C16">
         <v>-0.1719750410109616</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.1338879589890384</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.4784420410109615</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.2099289589890385</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-1.831659499074156E-07</v>
+      </c>
+      <c r="C17">
         <v>0.3058628168340501</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.3064671831659499</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3819038168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>2.770877186031306E-07</v>
+      </c>
+      <c r="C18">
         <v>-0.6123297229122814</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.07604127708771863</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>2.29775004800814E-07</v>
+      </c>
+      <c r="C19">
         <v>0.6883712297750049</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1.554241066958895E-07</v>
       </c>
     </row>
   </sheetData>
